--- a/data/tyee and catch and fence in-season updates 2024.xlsx
+++ b/data/tyee and catch and fence in-season updates 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd97481b0ff2b3c9/Documents/R/skeena-sockeye-inseason-updates/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{300015CA-734D-4980-AA82-24DFBA25F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DEC5AB-9D93-423C-90DF-C3B31DF40F9C}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{300015CA-734D-4980-AA82-24DFBA25F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92203722-D57C-42E0-BFC8-3E0AF47D2955}"/>
   <bookViews>
-    <workbookView xWindow="-26640" yWindow="5670" windowWidth="25950" windowHeight="12630" activeTab="3" xr2:uid="{2C266B51-59BD-477A-86B2-2A5C41C32BA7}"/>
+    <workbookView xWindow="-28365" yWindow="3405" windowWidth="24495" windowHeight="14760" activeTab="5" xr2:uid="{2C266B51-59BD-477A-86B2-2A5C41C32BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stat weeks" sheetId="7" r:id="rId1"/>
@@ -3428,11 +3428,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750B16BC-348F-4B8A-8D93-DCC2758546A8}">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4430,6 +4430,53 @@
       <c r="B16" s="5">
         <v>1.7478721932356688E-2</v>
       </c>
+      <c r="C16" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="D16">
+        <v>2051</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="30">E15+C16</f>
+        <v>18.28</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16" si="31">D16+F15</f>
+        <v>23813</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16" si="32">0.2*K12+0.2*K13+0.2*K14+0.2*K15+0.2*K16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ref="N16" si="33">D16+M16</f>
+        <v>2051</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ref="O16" si="34">N16+O15</f>
+        <v>23813</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" ref="P16" si="35">O16/B22</f>
+        <v>594083.01260371075</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" ref="Q16" si="36">O16/B16</f>
+        <v>1362399.3843575753</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" ref="R16" si="37">O16/B10</f>
+        <v>3993985.0538853873</v>
+      </c>
       <c r="S16" s="5">
         <v>6055.3984409538953</v>
       </c>
@@ -5661,7 +5708,7 @@
         <v>2000489.9200353138</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U103" si="30">T67/T$103</f>
+        <f t="shared" ref="U67:U103" si="38">T67/T$103</f>
         <v>0.93174435767784791</v>
       </c>
       <c r="V67">
@@ -5685,7 +5732,7 @@
         <v>2016400.7859674566</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.93915497215261667</v>
       </c>
       <c r="V68">
@@ -5709,7 +5756,7 @@
         <v>2030435.8430380342</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.94569191348095205</v>
       </c>
       <c r="V69">
@@ -5733,7 +5780,7 @@
         <v>2042854.689651778</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.95147609171915992</v>
       </c>
       <c r="V70">
@@ -5757,7 +5804,7 @@
         <v>2053606.7476786636</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.95648394969416972</v>
       </c>
       <c r="V71">
@@ -5781,7 +5828,7 @@
         <v>2065865.2868362539</v>
       </c>
       <c r="U72" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.96219346343831103</v>
       </c>
       <c r="V72">
@@ -5805,7 +5852,7 @@
         <v>2077103.4609738402</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.96742773392296921</v>
       </c>
       <c r="V73">
@@ -5829,7 +5876,7 @@
         <v>2085394.6546965488</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.97128942444796396</v>
       </c>
       <c r="V74">
@@ -5853,7 +5900,7 @@
         <v>2092610.3059997438</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.9746501723934492</v>
       </c>
       <c r="V75">
@@ -5877,7 +5924,7 @@
         <v>2098538.0123510528</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.97741104956233082</v>
       </c>
       <c r="V76">
@@ -5901,7 +5948,7 @@
         <v>2104195.0051471386</v>
       </c>
       <c r="U77" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.98004583970367987</v>
       </c>
       <c r="V77">
@@ -5925,7 +5972,7 @@
         <v>2109281.3197988374</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.98241483188436074</v>
       </c>
       <c r="V78">
@@ -5949,7 +5996,7 @@
         <v>2114084.3537846282</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.98465188380408075</v>
       </c>
       <c r="V79">
@@ -5973,7 +6020,7 @@
         <v>2119968.9699893328</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.98739269138872299</v>
       </c>
       <c r="V80">
@@ -5997,7 +6044,7 @@
         <v>2125286.9778638734</v>
       </c>
       <c r="U81" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.98986959656158291</v>
       </c>
       <c r="V81">
@@ -6021,7 +6068,7 @@
         <v>2129006.4314172841</v>
       </c>
       <c r="U82" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99160196213229967</v>
       </c>
       <c r="V82">
@@ -6045,7 +6092,7 @@
         <v>2133597.697408007</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99374038139580634</v>
       </c>
       <c r="V83">
@@ -6069,7 +6116,7 @@
         <v>2136413.1026648087</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99505167916158321</v>
       </c>
       <c r="V84">
@@ -6093,7 +6140,7 @@
         <v>2139052.7932392489</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99628113639309313</v>
       </c>
       <c r="V85">
@@ -6117,7 +6164,7 @@
         <v>2140687.2425697944</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99704239438614473</v>
       </c>
       <c r="V86">
@@ -6141,7 +6188,7 @@
         <v>2141977.0542902858</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99764313462532239</v>
       </c>
       <c r="V87">
@@ -6165,7 +6212,7 @@
         <v>2143293.7028361545</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99825637433294179</v>
       </c>
       <c r="V88">
@@ -6189,7 +6236,7 @@
         <v>2143777.6235789978</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99848176433225733</v>
       </c>
       <c r="V89">
@@ -6213,7 +6260,7 @@
         <v>2144506.7851018286</v>
       </c>
       <c r="U90" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99882137720804798</v>
       </c>
       <c r="V90">
@@ -6237,7 +6284,7 @@
         <v>2145231.7552591818</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99915903792147298</v>
       </c>
       <c r="V91">
@@ -6261,7 +6308,7 @@
         <v>2145698.7864259593</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99937656146415443</v>
       </c>
       <c r="V92">
@@ -6285,7 +6332,7 @@
         <v>2146300.1700746128</v>
       </c>
       <c r="U93" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99965666076174187</v>
       </c>
       <c r="V93">
@@ -6309,7 +6356,7 @@
         <v>2146467.0079124505</v>
       </c>
       <c r="U94" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99973436683388728</v>
       </c>
       <c r="V94">
@@ -6333,7 +6380,7 @@
         <v>2146562.4943989371</v>
       </c>
       <c r="U95" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99977884043714182</v>
       </c>
       <c r="V95">
@@ -6357,7 +6404,7 @@
         <v>2146727.2781827208</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99985558981700107</v>
       </c>
       <c r="V96">
@@ -6381,7 +6428,7 @@
         <v>2146878.4133178559</v>
       </c>
       <c r="U97" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99992598222837925</v>
       </c>
       <c r="V97">
@@ -6405,7 +6452,7 @@
         <v>2146911.0079124505</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99994116342439532</v>
       </c>
       <c r="V98">
@@ -6429,7 +6476,7 @@
         <v>2146945.0619665044</v>
       </c>
       <c r="U99" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99995702437545686</v>
       </c>
       <c r="V99">
@@ -6453,7 +6500,7 @@
         <v>2146956.602507045</v>
       </c>
       <c r="U100" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99996239947553889</v>
       </c>
       <c r="V100">
@@ -6477,7 +6524,7 @@
         <v>2146993.0889935317</v>
       </c>
       <c r="U101" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.9999793933516764</v>
       </c>
       <c r="V101">
@@ -6501,7 +6548,7 @@
         <v>2147004.4673719099</v>
       </c>
       <c r="U102" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0.99998469292341996</v>
       </c>
       <c r="V102">
@@ -6525,7 +6572,7 @@
         <v>2147037.3322367747</v>
       </c>
       <c r="U103" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="V103">
@@ -25339,8 +25386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72C1589-1C0D-4228-9089-B02B18853DD1}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25695,6 +25742,24 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45467</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1.57</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.61</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
